--- a/biology/Zoologie/Balangir_(race_ovine)/Balangir_(race_ovine).xlsx
+++ b/biology/Zoologie/Balangir_(race_ovine)/Balangir_(race_ovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Balangir est une race de mouton domestique originaire d'Inde. Race à laine présente dans l'est du pays, elle est élevée pour sa laine et sa viande.
@@ -512,9 +524,11 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est présente dans la partie nord-ouest de l'état d'Orissa, dans les districts de Balangir, Sambalpur et Sundergarh[1]. Elle est une des deux races principales de cet état, l'autre étant la Ganjam, présente plus au sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est présente dans la partie nord-ouest de l'état d'Orissa, dans les districts de Balangir, Sambalpur et Sundergarh. Elle est une des deux races principales de cet état, l'autre étant la Ganjam, présente plus au sud.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un mouton de taille moyenne, couvert d'une laine grossière d'une couleur brun clair à blanc. Certains animaux peuvent présenter une toison pie et plus rarement noire. La laine est absente sur le ventre et les pattes. Les béliers sont les seuls à porter des cornes[3]. Les animaux mesurent en moyenne 63 cm au garrot, ont une longue queue fine et des oreilles courtes. Les béliers pèsent entre 24 et 25 kg ; les brebis, plus petites, pèsent autour de 18 kg[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un mouton de taille moyenne, couvert d'une laine grossière d'une couleur brun clair à blanc. Certains animaux peuvent présenter une toison pie et plus rarement noire. La laine est absente sur le ventre et les pattes. Les béliers sont les seuls à porter des cornes. Les animaux mesurent en moyenne 63 cm au garrot, ont une longue queue fine et des oreilles courtes. Les béliers pèsent entre 24 et 25 kg ; les brebis, plus petites, pèsent autour de 18 kg,.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Élevage et production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est utilisée pour une production mixte : laine et viande[3]. La brebis donne naissance à un seul agneau[2]. La prolificité reste assez basse : entre 1 et 1.14[5].
-Les animaux peuvent également être utilisé dans le cadre de sacrifices religieux comme lors du festival de sulia yatra dans le district de Balangir[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est utilisée pour une production mixte : laine et viande. La brebis donne naissance à un seul agneau. La prolificité reste assez basse : entre 1 et 1.14.
+Les animaux peuvent également être utilisé dans le cadre de sacrifices religieux comme lors du festival de sulia yatra dans le district de Balangir.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>État de la population</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1970, sa population avoisine les 316 000 têtes[2]. Le recensement de 2007 permet de l'évaluer à 130 000 têtes[7],[8]. La FAO a classé la race au statut « non menacé »[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1970, sa population avoisine les 316 000 têtes. Le recensement de 2007 permet de l'évaluer à 130 000 têtes,. La FAO a classé la race au statut « non menacé ».
 </t>
         </is>
       </c>
